--- a/Team-Data/2007-08/12-31-2007-08.xlsx
+++ b/Team-Data/2007-08/12-31-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,19 +811,19 @@
         <v>-0.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AE2" t="n">
         <v>14</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG2" t="n">
         <v>12</v>
       </c>
       <c r="AH2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI2" t="n">
         <v>28</v>
@@ -798,7 +865,7 @@
         <v>22</v>
       </c>
       <c r="AV2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AW2" t="n">
         <v>6</v>
@@ -810,7 +877,7 @@
         <v>19</v>
       </c>
       <c r="AZ2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA2" t="n">
         <v>8</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -926,7 +993,7 @@
         <v>13.8</v>
       </c>
       <c r="AD3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -959,7 +1026,7 @@
         <v>2</v>
       </c>
       <c r="AO3" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AP3" t="n">
         <v>7</v>
@@ -980,19 +1047,19 @@
         <v>10</v>
       </c>
       <c r="AV3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW3" t="n">
         <v>2</v>
       </c>
       <c r="AX3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
       </c>
       <c r="AZ3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA3" t="n">
         <v>7</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -1030,46 +1097,46 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F4" t="n">
         <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>0.379</v>
+        <v>0.357</v>
       </c>
       <c r="H4" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I4" t="n">
         <v>34.4</v>
       </c>
       <c r="J4" t="n">
-        <v>77.90000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="K4" t="n">
         <v>0.442</v>
       </c>
       <c r="L4" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="M4" t="n">
-        <v>17.3</v>
+        <v>17.2</v>
       </c>
       <c r="N4" t="n">
-        <v>0.373</v>
+        <v>0.367</v>
       </c>
       <c r="O4" t="n">
-        <v>18.4</v>
+        <v>18</v>
       </c>
       <c r="P4" t="n">
-        <v>26.7</v>
+        <v>26.2</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="R4" t="n">
         <v>11.2</v>
@@ -1081,67 +1148,67 @@
         <v>39.6</v>
       </c>
       <c r="U4" t="n">
-        <v>20.2</v>
+        <v>20.1</v>
       </c>
       <c r="V4" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W4" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="X4" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y4" t="n">
         <v>5.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>23.1</v>
+        <v>23.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>21.9</v>
+        <v>21.6</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.59999999999999</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="AC4" t="n">
-        <v>-5.1</v>
+        <v>-5.4</v>
       </c>
       <c r="AD4" t="n">
+        <v>27</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>24</v>
+      </c>
+      <c r="AF4" t="n">
         <v>22</v>
       </c>
-      <c r="AE4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>21</v>
-      </c>
       <c r="AG4" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AI4" t="n">
         <v>27</v>
       </c>
       <c r="AJ4" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AK4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AM4" t="n">
         <v>15</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP4" t="n">
         <v>13</v>
@@ -1156,13 +1223,13 @@
         <v>30</v>
       </c>
       <c r="AT4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV4" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AW4" t="n">
         <v>9</v>
@@ -1171,7 +1238,7 @@
         <v>18</v>
       </c>
       <c r="AY4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ4" t="n">
         <v>25</v>
@@ -1180,10 +1247,10 @@
         <v>16</v>
       </c>
       <c r="BB4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BC4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -1212,100 +1279,100 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E5" t="n">
         <v>11</v>
       </c>
       <c r="F5" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" t="n">
-        <v>0.379</v>
+        <v>0.393</v>
       </c>
       <c r="H5" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I5" t="n">
-        <v>35.3</v>
+        <v>35</v>
       </c>
       <c r="J5" t="n">
-        <v>84.7</v>
+        <v>84.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.417</v>
+        <v>0.416</v>
       </c>
       <c r="L5" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M5" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="N5" t="n">
         <v>0.332</v>
       </c>
       <c r="O5" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="P5" t="n">
         <v>22.3</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.764</v>
+        <v>0.761</v>
       </c>
       <c r="R5" t="n">
-        <v>13.6</v>
+        <v>13.5</v>
       </c>
       <c r="S5" t="n">
         <v>29.9</v>
       </c>
       <c r="T5" t="n">
-        <v>43.6</v>
+        <v>43.4</v>
       </c>
       <c r="U5" t="n">
-        <v>21.6</v>
+        <v>21.4</v>
       </c>
       <c r="V5" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W5" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="X5" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y5" t="n">
         <v>5.9</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="AA5" t="n">
         <v>20.8</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.8</v>
+        <v>92.2</v>
       </c>
       <c r="AC5" t="n">
         <v>-4</v>
       </c>
       <c r="AD5" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
       </c>
       <c r="AF5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AG5" t="n">
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AI5" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AJ5" t="n">
         <v>6</v>
@@ -1320,16 +1387,16 @@
         <v>24</v>
       </c>
       <c r="AN5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AO5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP5" t="n">
         <v>25</v>
       </c>
       <c r="AQ5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AR5" t="n">
         <v>1</v>
@@ -1338,16 +1405,16 @@
         <v>19</v>
       </c>
       <c r="AT5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AW5" t="n">
         <v>13</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>12</v>
       </c>
       <c r="AX5" t="n">
         <v>16</v>
@@ -1362,7 +1429,7 @@
         <v>19</v>
       </c>
       <c r="BB5" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="BC5" t="n">
         <v>21</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -1472,13 +1539,13 @@
         <v>-3.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>18</v>
       </c>
       <c r="AF6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG6" t="n">
         <v>19</v>
@@ -1502,10 +1569,10 @@
         <v>13</v>
       </c>
       <c r="AN6" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO6" t="n">
         <v>19</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>20</v>
       </c>
       <c r="AP6" t="n">
         <v>15</v>
@@ -1520,19 +1587,19 @@
         <v>15</v>
       </c>
       <c r="AT6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AU6" t="n">
         <v>27</v>
       </c>
       <c r="AV6" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AX6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY6" t="n">
         <v>18</v>
@@ -1544,7 +1611,7 @@
         <v>26</v>
       </c>
       <c r="BB6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BC6" t="n">
         <v>20</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -1654,16 +1721,16 @@
         <v>3.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>6</v>
       </c>
       <c r="AF7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AH7" t="n">
         <v>21</v>
@@ -1672,16 +1739,16 @@
         <v>17</v>
       </c>
       <c r="AJ7" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AK7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL7" t="n">
         <v>17</v>
       </c>
       <c r="AM7" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN7" t="n">
         <v>15</v>
@@ -1690,7 +1757,7 @@
         <v>2</v>
       </c>
       <c r="AP7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ7" t="n">
         <v>1</v>
@@ -1720,7 +1787,7 @@
         <v>6</v>
       </c>
       <c r="AZ7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -1836,10 +1903,10 @@
         <v>3.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF8" t="n">
         <v>9</v>
@@ -1848,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="AH8" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
@@ -1860,13 +1927,13 @@
         <v>12</v>
       </c>
       <c r="AL8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AM8" t="n">
         <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1878,16 +1945,16 @@
         <v>16</v>
       </c>
       <c r="AR8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AS8" t="n">
         <v>4</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU8" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV8" t="n">
         <v>29</v>
@@ -1902,7 +1969,7 @@
         <v>12</v>
       </c>
       <c r="AZ8" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -1940,85 +2007,85 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F9" t="n">
         <v>7</v>
       </c>
       <c r="G9" t="n">
-        <v>0.774</v>
+        <v>0.767</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>37.3</v>
+        <v>37.1</v>
       </c>
       <c r="J9" t="n">
-        <v>79.59999999999999</v>
+        <v>79.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.469</v>
+        <v>0.465</v>
       </c>
       <c r="L9" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M9" t="n">
         <v>15.7</v>
       </c>
       <c r="N9" t="n">
-        <v>0.362</v>
+        <v>0.357</v>
       </c>
       <c r="O9" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="P9" t="n">
-        <v>25.6</v>
+        <v>25.8</v>
       </c>
       <c r="Q9" t="n">
         <v>0.762</v>
       </c>
       <c r="R9" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="S9" t="n">
         <v>29.5</v>
       </c>
       <c r="T9" t="n">
-        <v>40.9</v>
+        <v>41.1</v>
       </c>
       <c r="U9" t="n">
-        <v>23.6</v>
+        <v>23.3</v>
       </c>
       <c r="V9" t="n">
         <v>11.8</v>
       </c>
       <c r="W9" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="Z9" t="n">
         <v>20.3</v>
       </c>
       <c r="AA9" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>99.8</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="AC9" t="n">
-        <v>10.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2033,13 +2100,13 @@
         <v>24</v>
       </c>
       <c r="AI9" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AJ9" t="n">
         <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AL9" t="n">
         <v>20</v>
@@ -2048,7 +2115,7 @@
         <v>23</v>
       </c>
       <c r="AN9" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO9" t="n">
         <v>11</v>
@@ -2057,19 +2124,19 @@
         <v>14</v>
       </c>
       <c r="AQ9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR9" t="n">
         <v>13</v>
       </c>
-      <c r="AR9" t="n">
-        <v>17</v>
-      </c>
       <c r="AS9" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU9" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2084,10 +2151,10 @@
         <v>2</v>
       </c>
       <c r="AZ9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA9" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BB9" t="n">
         <v>12</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -2122,16 +2189,16 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" t="n">
         <v>13</v>
       </c>
       <c r="G10" t="n">
-        <v>0.594</v>
+        <v>0.581</v>
       </c>
       <c r="H10" t="n">
         <v>48.3</v>
@@ -2140,49 +2207,49 @@
         <v>40.1</v>
       </c>
       <c r="J10" t="n">
-        <v>89.5</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="K10" t="n">
         <v>0.448</v>
       </c>
       <c r="L10" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M10" t="n">
-        <v>27.5</v>
+        <v>27.2</v>
       </c>
       <c r="N10" t="n">
-        <v>0.349</v>
+        <v>0.347</v>
       </c>
       <c r="O10" t="n">
         <v>18.7</v>
       </c>
       <c r="P10" t="n">
-        <v>25.1</v>
+        <v>25.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.743</v>
+        <v>0.74</v>
       </c>
       <c r="R10" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="S10" t="n">
-        <v>30.2</v>
+        <v>30.1</v>
       </c>
       <c r="T10" t="n">
-        <v>42.9</v>
+        <v>42.8</v>
       </c>
       <c r="U10" t="n">
         <v>22.8</v>
       </c>
       <c r="V10" t="n">
-        <v>14</v>
+        <v>13.8</v>
       </c>
       <c r="W10" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="X10" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Y10" t="n">
         <v>5.6</v>
@@ -2194,25 +2261,25 @@
         <v>22.2</v>
       </c>
       <c r="AB10" t="n">
-        <v>108.5</v>
+        <v>108.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AD10" t="n">
         <v>3</v>
       </c>
       <c r="AE10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI10" t="n">
         <v>2</v>
@@ -2221,7 +2288,7 @@
         <v>1</v>
       </c>
       <c r="AK10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL10" t="n">
         <v>1</v>
@@ -2230,25 +2297,25 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO10" t="n">
         <v>17</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AP10" t="n">
         <v>16</v>
       </c>
-      <c r="AP10" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AR10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AS10" t="n">
         <v>17</v>
       </c>
       <c r="AT10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU10" t="n">
         <v>8</v>
@@ -2260,13 +2327,13 @@
         <v>4</v>
       </c>
       <c r="AX10" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY10" t="n">
         <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA10" t="n">
         <v>11</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -2304,64 +2371,64 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="n">
         <v>15</v>
       </c>
       <c r="F11" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="n">
-        <v>0.484</v>
+        <v>0.5</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J11" t="n">
-        <v>82.2</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="K11" t="n">
         <v>0.436</v>
       </c>
       <c r="L11" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="M11" t="n">
         <v>20</v>
       </c>
       <c r="N11" t="n">
-        <v>0.337</v>
+        <v>0.339</v>
       </c>
       <c r="O11" t="n">
-        <v>16.5</v>
+        <v>16.2</v>
       </c>
       <c r="P11" t="n">
-        <v>22.6</v>
+        <v>22.4</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.726</v>
+        <v>0.724</v>
       </c>
       <c r="R11" t="n">
-        <v>12.6</v>
+        <v>12.7</v>
       </c>
       <c r="S11" t="n">
-        <v>32</v>
+        <v>32.2</v>
       </c>
       <c r="T11" t="n">
-        <v>44.5</v>
+        <v>44.9</v>
       </c>
       <c r="U11" t="n">
-        <v>20.9</v>
+        <v>21</v>
       </c>
       <c r="V11" t="n">
-        <v>15</v>
+        <v>14.7</v>
       </c>
       <c r="W11" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X11" t="n">
         <v>5.6</v>
@@ -2373,34 +2440,34 @@
         <v>20.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>20.5</v>
+        <v>20.3</v>
       </c>
       <c r="AB11" t="n">
         <v>94.90000000000001</v>
       </c>
       <c r="AC11" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
         <v>14</v>
       </c>
       <c r="AF11" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG11" t="n">
         <v>15</v>
       </c>
-      <c r="AG11" t="n">
-        <v>16</v>
-      </c>
       <c r="AH11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
         <v>25</v>
@@ -2412,7 +2479,7 @@
         <v>8</v>
       </c>
       <c r="AN11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO11" t="n">
         <v>27</v>
@@ -2424,13 +2491,13 @@
         <v>23</v>
       </c>
       <c r="AR11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AS11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AU11" t="n">
         <v>16</v>
@@ -2445,13 +2512,13 @@
         <v>4</v>
       </c>
       <c r="AY11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BB11" t="n">
         <v>21</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -2486,19 +2553,19 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E12" t="n">
         <v>15</v>
       </c>
       <c r="F12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G12" t="n">
-        <v>0.469</v>
+        <v>0.484</v>
       </c>
       <c r="H12" t="n">
-        <v>48.3</v>
+        <v>48.2</v>
       </c>
       <c r="I12" t="n">
         <v>38.5</v>
@@ -2510,40 +2577,40 @@
         <v>0.445</v>
       </c>
       <c r="L12" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="M12" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="N12" t="n">
-        <v>0.365</v>
+        <v>0.363</v>
       </c>
       <c r="O12" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="P12" t="n">
-        <v>24.5</v>
+        <v>24.8</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.753</v>
+        <v>0.751</v>
       </c>
       <c r="R12" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S12" t="n">
-        <v>32.7</v>
+        <v>32.5</v>
       </c>
       <c r="T12" t="n">
-        <v>44.4</v>
+        <v>44.3</v>
       </c>
       <c r="U12" t="n">
-        <v>23.6</v>
+        <v>23.7</v>
       </c>
       <c r="V12" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="W12" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
         <v>5.6</v>
@@ -2552,16 +2619,16 @@
         <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>24.6</v>
+        <v>24.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="AB12" t="n">
         <v>103.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>-0.8</v>
+        <v>-0.6</v>
       </c>
       <c r="AD12" t="n">
         <v>3</v>
@@ -2570,13 +2637,13 @@
         <v>14</v>
       </c>
       <c r="AF12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
         <v>17</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
         <v>6</v>
@@ -2594,13 +2661,13 @@
         <v>4</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>18</v>
       </c>
       <c r="AP12" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ12" t="n">
         <v>17</v>
@@ -2615,13 +2682,13 @@
         <v>5</v>
       </c>
       <c r="AU12" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV12" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="AW12" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AX12" t="n">
         <v>3</v>
@@ -2633,7 +2700,7 @@
         <v>29</v>
       </c>
       <c r="BA12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BB12" t="n">
         <v>7</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -2668,91 +2735,91 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F13" t="n">
         <v>19</v>
       </c>
       <c r="G13" t="n">
-        <v>0.345</v>
+        <v>0.321</v>
       </c>
       <c r="H13" t="n">
         <v>48</v>
       </c>
       <c r="I13" t="n">
-        <v>33.4</v>
+        <v>33.5</v>
       </c>
       <c r="J13" t="n">
-        <v>80</v>
+        <v>80.2</v>
       </c>
       <c r="K13" t="n">
-        <v>0.418</v>
+        <v>0.417</v>
       </c>
       <c r="L13" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="M13" t="n">
         <v>14.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.336</v>
+        <v>0.347</v>
       </c>
       <c r="O13" t="n">
-        <v>21.1</v>
+        <v>20.9</v>
       </c>
       <c r="P13" t="n">
-        <v>27.1</v>
+        <v>27</v>
       </c>
       <c r="Q13" t="n">
         <v>0.776</v>
       </c>
       <c r="R13" t="n">
-        <v>10.4</v>
+        <v>10.5</v>
       </c>
       <c r="S13" t="n">
-        <v>32.3</v>
+        <v>32.2</v>
       </c>
       <c r="T13" t="n">
         <v>42.7</v>
       </c>
       <c r="U13" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V13" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W13" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X13" t="n">
         <v>5.3</v>
       </c>
       <c r="Y13" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>21.6</v>
+        <v>21.9</v>
       </c>
       <c r="AA13" t="n">
-        <v>22.1</v>
+        <v>21.9</v>
       </c>
       <c r="AB13" t="n">
         <v>92.90000000000001</v>
       </c>
       <c r="AC13" t="n">
-        <v>-5</v>
+        <v>-5.5</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
       </c>
       <c r="AF13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
         <v>25</v>
@@ -2764,7 +2831,7 @@
         <v>29</v>
       </c>
       <c r="AJ13" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
         <v>29</v>
@@ -2776,13 +2843,13 @@
         <v>25</v>
       </c>
       <c r="AN13" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AO13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AQ13" t="n">
         <v>6</v>
@@ -2791,7 +2858,7 @@
         <v>21</v>
       </c>
       <c r="AS13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT13" t="n">
         <v>12</v>
@@ -2803,25 +2870,25 @@
         <v>11</v>
       </c>
       <c r="AW13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ13" t="n">
         <v>21</v>
       </c>
-      <c r="AX13" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY13" t="n">
-        <v>25</v>
-      </c>
-      <c r="AZ13" t="n">
-        <v>17</v>
-      </c>
       <c r="BA13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BB13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC13" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -2928,13 +2995,13 @@
         <v>4.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE14" t="n">
         <v>8</v>
       </c>
       <c r="AF14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG14" t="n">
         <v>8</v>
@@ -2946,10 +3013,10 @@
         <v>5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL14" t="n">
         <v>10</v>
@@ -2982,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW14" t="n">
         <v>5</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -3110,25 +3177,25 @@
         <v>-5</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
       </c>
       <c r="AF15" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AG15" t="n">
         <v>28</v>
       </c>
       <c r="AH15" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AI15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AK15" t="n">
         <v>10</v>
@@ -3146,7 +3213,7 @@
         <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ15" t="n">
         <v>15</v>
@@ -3161,19 +3228,19 @@
         <v>24</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AV15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW15" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AX15" t="n">
         <v>12</v>
       </c>
       <c r="AY15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
         <v>6</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -3292,7 +3359,7 @@
         <v>-5.3</v>
       </c>
       <c r="AD16" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
         <v>27</v>
@@ -3322,13 +3389,13 @@
         <v>27</v>
       </c>
       <c r="AN16" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO16" t="n">
         <v>14</v>
       </c>
       <c r="AP16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ16" t="n">
         <v>29</v>
@@ -3340,25 +3407,25 @@
         <v>20</v>
       </c>
       <c r="AT16" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AU16" t="n">
         <v>26</v>
       </c>
       <c r="AV16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AW16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX16" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AY16" t="n">
         <v>3</v>
       </c>
       <c r="AZ16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA16" t="n">
         <v>9</v>
@@ -3367,7 +3434,7 @@
         <v>23</v>
       </c>
       <c r="BC16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -3396,148 +3463,148 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E17" t="n">
         <v>11</v>
       </c>
       <c r="F17" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G17" t="n">
-        <v>0.367</v>
+        <v>0.379</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>36.3</v>
+        <v>36.7</v>
       </c>
       <c r="J17" t="n">
-        <v>80.8</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K17" t="n">
-        <v>0.449</v>
+        <v>0.452</v>
       </c>
       <c r="L17" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M17" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="N17" t="n">
-        <v>0.336</v>
+        <v>0.341</v>
       </c>
       <c r="O17" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P17" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.735</v>
+        <v>0.741</v>
       </c>
       <c r="R17" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S17" t="n">
-        <v>28.7</v>
+        <v>28.9</v>
       </c>
       <c r="T17" t="n">
-        <v>40.9</v>
+        <v>41</v>
       </c>
       <c r="U17" t="n">
-        <v>21.5</v>
+        <v>21.8</v>
       </c>
       <c r="V17" t="n">
-        <v>15.7</v>
+        <v>15.5</v>
       </c>
       <c r="W17" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X17" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="Y17" t="n">
         <v>5.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA17" t="n">
         <v>21.3</v>
       </c>
       <c r="AB17" t="n">
-        <v>94.90000000000001</v>
+        <v>95.8</v>
       </c>
       <c r="AC17" t="n">
-        <v>-6.3</v>
+        <v>-5</v>
       </c>
       <c r="AD17" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="n">
         <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG17" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AH17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AI17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AK17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL17" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM17" t="n">
         <v>22</v>
       </c>
       <c r="AN17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO17" t="n">
         <v>23</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>24</v>
       </c>
       <c r="AP17" t="n">
         <v>23</v>
       </c>
       <c r="AQ17" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AR17" t="n">
         <v>10</v>
       </c>
       <c r="AS17" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AT17" t="n">
         <v>26</v>
       </c>
       <c r="AU17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AV17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AW17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX17" t="n">
         <v>17</v>
       </c>
       <c r="AY17" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ17" t="n">
         <v>18</v>
@@ -3546,10 +3613,10 @@
         <v>18</v>
       </c>
       <c r="BB17" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="BC17" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="BD17" t="n">
         <v>10</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -3578,55 +3645,55 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E18" t="n">
         <v>4</v>
       </c>
       <c r="F18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G18" t="n">
-        <v>0.133</v>
+        <v>0.138</v>
       </c>
       <c r="H18" t="n">
         <v>48</v>
       </c>
       <c r="I18" t="n">
-        <v>36.5</v>
+        <v>36.6</v>
       </c>
       <c r="J18" t="n">
-        <v>83.8</v>
+        <v>83.7</v>
       </c>
       <c r="K18" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L18" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="M18" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="N18" t="n">
-        <v>0.344</v>
+        <v>0.348</v>
       </c>
       <c r="O18" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="P18" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.718</v>
+        <v>0.72</v>
       </c>
       <c r="R18" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S18" t="n">
         <v>29.4</v>
       </c>
       <c r="T18" t="n">
-        <v>42.1</v>
+        <v>41.9</v>
       </c>
       <c r="U18" t="n">
         <v>18.9</v>
@@ -3635,7 +3702,7 @@
         <v>16.1</v>
       </c>
       <c r="W18" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="X18" t="n">
         <v>4.2</v>
@@ -3644,19 +3711,19 @@
         <v>5.9</v>
       </c>
       <c r="Z18" t="n">
-        <v>24</v>
+        <v>23.9</v>
       </c>
       <c r="AA18" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="AB18" t="n">
-        <v>93.5</v>
+        <v>93.90000000000001</v>
       </c>
       <c r="AC18" t="n">
         <v>-8.800000000000001</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="AE18" t="n">
         <v>30</v>
@@ -3671,7 +3738,7 @@
         <v>24</v>
       </c>
       <c r="AI18" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ18" t="n">
         <v>7</v>
@@ -3680,13 +3747,13 @@
         <v>24</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AN18" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AO18" t="n">
         <v>30</v>
@@ -3695,31 +3762,31 @@
         <v>28</v>
       </c>
       <c r="AQ18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>7</v>
+      </c>
+      <c r="AS18" t="n">
         <v>25</v>
       </c>
-      <c r="AR18" t="n">
-        <v>4</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>24</v>
-      </c>
       <c r="AT18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AU18" t="n">
         <v>28</v>
       </c>
       <c r="AV18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AX18" t="n">
         <v>25</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AZ18" t="n">
         <v>28</v>
@@ -3728,7 +3795,7 @@
         <v>29</v>
       </c>
       <c r="BB18" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="BC18" t="n">
         <v>30</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -3838,13 +3905,13 @@
         <v>-5</v>
       </c>
       <c r="AD19" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AE19" t="n">
         <v>18</v>
       </c>
       <c r="AF19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG19" t="n">
         <v>18</v>
@@ -3862,7 +3929,7 @@
         <v>26</v>
       </c>
       <c r="AL19" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AM19" t="n">
         <v>16</v>
@@ -3871,16 +3938,16 @@
         <v>30</v>
       </c>
       <c r="AO19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP19" t="n">
         <v>6</v>
       </c>
       <c r="AQ19" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AR19" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS19" t="n">
         <v>18</v>
@@ -3904,13 +3971,13 @@
         <v>5</v>
       </c>
       <c r="AZ19" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BA19" t="n">
         <v>6</v>
       </c>
       <c r="BB19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC19" t="n">
         <v>23</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -3942,22 +4009,22 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" t="n">
         <v>20</v>
       </c>
       <c r="F20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>0.645</v>
+        <v>0.667</v>
       </c>
       <c r="H20" t="n">
         <v>48.5</v>
       </c>
       <c r="I20" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J20" t="n">
         <v>82.8</v>
@@ -3966,13 +4033,13 @@
         <v>0.445</v>
       </c>
       <c r="L20" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M20" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="N20" t="n">
-        <v>0.356</v>
+        <v>0.363</v>
       </c>
       <c r="O20" t="n">
         <v>15.6</v>
@@ -3981,7 +4048,7 @@
         <v>19.8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.788</v>
+        <v>0.789</v>
       </c>
       <c r="R20" t="n">
         <v>11.5</v>
@@ -3993,13 +4060,13 @@
         <v>42.8</v>
       </c>
       <c r="U20" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="V20" t="n">
         <v>12.9</v>
       </c>
       <c r="W20" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
         <v>4.2</v>
@@ -4008,19 +4075,19 @@
         <v>4.3</v>
       </c>
       <c r="Z20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="AA20" t="n">
         <v>19.1</v>
       </c>
       <c r="AB20" t="n">
-        <v>96.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="AC20" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE20" t="n">
         <v>6</v>
@@ -4029,10 +4096,10 @@
         <v>5</v>
       </c>
       <c r="AG20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AI20" t="n">
         <v>12</v>
@@ -4041,7 +4108,7 @@
         <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
         <v>9</v>
@@ -4050,7 +4117,7 @@
         <v>7</v>
       </c>
       <c r="AN20" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
         <v>28</v>
@@ -4059,7 +4126,7 @@
         <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR20" t="n">
         <v>14</v>
@@ -4068,10 +4135,10 @@
         <v>14</v>
       </c>
       <c r="AT20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AU20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AV20" t="n">
         <v>4</v>
@@ -4080,7 +4147,7 @@
         <v>8</v>
       </c>
       <c r="AX20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AY20" t="n">
         <v>7</v>
@@ -4095,7 +4162,7 @@
         <v>17</v>
       </c>
       <c r="BC20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-8.199999999999999</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE21" t="n">
         <v>27</v>
@@ -4229,7 +4296,7 @@
         <v>21</v>
       </c>
       <c r="AM21" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AN21" t="n">
         <v>28</v>
@@ -4238,7 +4305,7 @@
         <v>13</v>
       </c>
       <c r="AP21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ21" t="n">
         <v>28</v>
@@ -4256,10 +4323,10 @@
         <v>30</v>
       </c>
       <c r="AV21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AW21" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX21" t="n">
         <v>30</v>
@@ -4274,7 +4341,7 @@
         <v>14</v>
       </c>
       <c r="BB21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC21" t="n">
         <v>29</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -4306,61 +4373,61 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F22" t="n">
         <v>11</v>
       </c>
       <c r="G22" t="n">
-        <v>0.667</v>
+        <v>0.656</v>
       </c>
       <c r="H22" t="n">
-        <v>48.6</v>
+        <v>48.5</v>
       </c>
       <c r="I22" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J22" t="n">
-        <v>79.5</v>
+        <v>79.3</v>
       </c>
       <c r="K22" t="n">
-        <v>0.463</v>
+        <v>0.462</v>
       </c>
       <c r="L22" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="M22" t="n">
-        <v>25.5</v>
+        <v>25.6</v>
       </c>
       <c r="N22" t="n">
-        <v>0.356</v>
+        <v>0.353</v>
       </c>
       <c r="O22" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="P22" t="n">
-        <v>29.7</v>
+        <v>29.8</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.714</v>
+        <v>0.713</v>
       </c>
       <c r="R22" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="S22" t="n">
-        <v>33.8</v>
+        <v>33.9</v>
       </c>
       <c r="T22" t="n">
-        <v>43.6</v>
+        <v>43.7</v>
       </c>
       <c r="U22" t="n">
         <v>21.1</v>
       </c>
       <c r="V22" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="W22" t="n">
         <v>6.2</v>
@@ -4369,7 +4436,7 @@
         <v>4.6</v>
       </c>
       <c r="Y22" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z22" t="n">
         <v>21.2</v>
@@ -4378,31 +4445,31 @@
         <v>24.2</v>
       </c>
       <c r="AB22" t="n">
-        <v>103.9</v>
+        <v>103.7</v>
       </c>
       <c r="AC22" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="AD22" t="n">
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG22" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH22" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AI22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK22" t="n">
         <v>9</v>
@@ -4447,10 +4514,10 @@
         <v>19</v>
       </c>
       <c r="AY22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA22" t="n">
         <v>2</v>
@@ -4459,7 +4526,7 @@
         <v>6</v>
       </c>
       <c r="BC22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD22" t="n">
         <v>10</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -4488,64 +4555,64 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F23" t="n">
         <v>17</v>
       </c>
       <c r="G23" t="n">
-        <v>0.452</v>
+        <v>0.433</v>
       </c>
       <c r="H23" t="n">
         <v>48.3</v>
       </c>
       <c r="I23" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J23" t="n">
-        <v>79.09999999999999</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="K23" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="L23" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="M23" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="N23" t="n">
-        <v>0.333</v>
+        <v>0.329</v>
       </c>
       <c r="O23" t="n">
-        <v>17.8</v>
+        <v>17.5</v>
       </c>
       <c r="P23" t="n">
-        <v>24.7</v>
+        <v>24.4</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.718</v>
+        <v>0.72</v>
       </c>
       <c r="R23" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="S23" t="n">
         <v>29.6</v>
       </c>
       <c r="T23" t="n">
-        <v>41.9</v>
+        <v>42.2</v>
       </c>
       <c r="U23" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="V23" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="W23" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="X23" t="n">
         <v>5.4</v>
@@ -4554,40 +4621,40 @@
         <v>4.5</v>
       </c>
       <c r="Z23" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="AA23" t="n">
-        <v>20.5</v>
+        <v>20.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>93.09999999999999</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.8</v>
+        <v>-1.1</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE23" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AF23" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AG23" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH23" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
         <v>21</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AL23" t="n">
         <v>28</v>
@@ -4596,49 +4663,49 @@
         <v>28</v>
       </c>
       <c r="AN23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ23" t="n">
         <v>25</v>
       </c>
-      <c r="AO23" t="n">
-        <v>22</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>24</v>
-      </c>
       <c r="AR23" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AS23" t="n">
         <v>21</v>
       </c>
       <c r="AT23" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AU23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AV23" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AW23" t="n">
         <v>11</v>
       </c>
       <c r="AX23" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ23" t="n">
         <v>9</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>8</v>
       </c>
       <c r="BA23" t="n">
         <v>22</v>
       </c>
       <c r="BB23" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC23" t="n">
         <v>18</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>5.6</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AE24" t="n">
         <v>3</v>
@@ -4778,7 +4845,7 @@
         <v>3</v>
       </c>
       <c r="AN24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO24" t="n">
         <v>25</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -4852,25 +4919,25 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E25" t="n">
         <v>18</v>
       </c>
       <c r="F25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G25" t="n">
-        <v>0.581</v>
+        <v>0.6</v>
       </c>
       <c r="H25" t="n">
         <v>48.2</v>
       </c>
       <c r="I25" t="n">
-        <v>35.8</v>
+        <v>36</v>
       </c>
       <c r="J25" t="n">
-        <v>77.3</v>
+        <v>77.8</v>
       </c>
       <c r="K25" t="n">
         <v>0.463</v>
@@ -4879,37 +4946,37 @@
         <v>6.4</v>
       </c>
       <c r="M25" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="N25" t="n">
-        <v>0.381</v>
+        <v>0.382</v>
       </c>
       <c r="O25" t="n">
-        <v>17.9</v>
+        <v>17.4</v>
       </c>
       <c r="P25" t="n">
-        <v>23.8</v>
+        <v>23.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.751</v>
+        <v>0.75</v>
       </c>
       <c r="R25" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="S25" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T25" t="n">
-        <v>39.5</v>
+        <v>39.7</v>
       </c>
       <c r="U25" t="n">
         <v>21.8</v>
       </c>
       <c r="V25" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="W25" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="X25" t="n">
         <v>4.5</v>
@@ -4918,52 +4985,52 @@
         <v>3.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>19.9</v>
+        <v>19.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>21.7</v>
+        <v>21.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>96</v>
+        <v>95.8</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.1</v>
+        <v>0.3</v>
       </c>
       <c r="AD25" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG25" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AI25" t="n">
         <v>18</v>
       </c>
       <c r="AJ25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK25" t="n">
         <v>8</v>
       </c>
       <c r="AL25" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM25" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN25" t="n">
         <v>4</v>
       </c>
       <c r="AO25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AP25" t="n">
         <v>22</v>
@@ -4972,13 +5039,13 @@
         <v>18</v>
       </c>
       <c r="AR25" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AS25" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AT25" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AU25" t="n">
         <v>12</v>
@@ -4987,7 +5054,7 @@
         <v>9</v>
       </c>
       <c r="AW25" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX25" t="n">
         <v>20</v>
@@ -4996,13 +5063,13 @@
         <v>1</v>
       </c>
       <c r="AZ25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BA25" t="n">
         <v>17</v>
       </c>
       <c r="BB25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC25" t="n">
         <v>15</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -5112,22 +5179,22 @@
         <v>-3.7</v>
       </c>
       <c r="AD26" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE26" t="n">
         <v>21</v>
       </c>
       <c r="AF26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH26" t="n">
         <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AJ26" t="n">
         <v>23</v>
@@ -5136,7 +5203,7 @@
         <v>17</v>
       </c>
       <c r="AL26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM26" t="n">
         <v>21</v>
@@ -5148,16 +5215,16 @@
         <v>7</v>
       </c>
       <c r="AP26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AQ26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR26" t="n">
         <v>23</v>
       </c>
       <c r="AS26" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AT26" t="n">
         <v>30</v>
@@ -5175,7 +5242,7 @@
         <v>28</v>
       </c>
       <c r="AY26" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ26" t="n">
         <v>22</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>7</v>
       </c>
       <c r="AD27" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF27" t="n">
         <v>3</v>
@@ -5309,13 +5376,13 @@
         <v>24</v>
       </c>
       <c r="AI27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ27" t="n">
         <v>20</v>
       </c>
       <c r="AK27" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL27" t="n">
         <v>4</v>
@@ -5333,16 +5400,16 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AS27" t="n">
         <v>10</v>
       </c>
       <c r="AT27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AU27" t="n">
         <v>9</v>
@@ -5357,7 +5424,7 @@
         <v>29</v>
       </c>
       <c r="AY27" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ27" t="n">
         <v>1</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -5398,16 +5465,16 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E28" t="n">
         <v>9</v>
       </c>
       <c r="F28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G28" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
       <c r="H28" t="n">
         <v>48.3</v>
@@ -5416,7 +5483,7 @@
         <v>37.4</v>
       </c>
       <c r="J28" t="n">
-        <v>84.7</v>
+        <v>84.59999999999999</v>
       </c>
       <c r="K28" t="n">
         <v>0.442</v>
@@ -5425,70 +5492,70 @@
         <v>4.8</v>
       </c>
       <c r="M28" t="n">
-        <v>13.5</v>
+        <v>13.3</v>
       </c>
       <c r="N28" t="n">
-        <v>0.36</v>
+        <v>0.358</v>
       </c>
       <c r="O28" t="n">
-        <v>18.5</v>
+        <v>18.8</v>
       </c>
       <c r="P28" t="n">
-        <v>24</v>
+        <v>24.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.769</v>
+        <v>0.768</v>
       </c>
       <c r="R28" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="S28" t="n">
-        <v>33.5</v>
+        <v>33.6</v>
       </c>
       <c r="T28" t="n">
         <v>45.1</v>
       </c>
       <c r="U28" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="V28" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="W28" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="X28" t="n">
         <v>5.4</v>
       </c>
       <c r="Y28" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Z28" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.5</v>
+        <v>20.7</v>
       </c>
       <c r="AB28" t="n">
-        <v>98.2</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="AC28" t="n">
-        <v>-6.2</v>
+        <v>-6.1</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AE28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AF28" t="n">
         <v>26</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>27</v>
       </c>
       <c r="AG28" t="n">
         <v>26</v>
       </c>
       <c r="AH28" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AI28" t="n">
         <v>7</v>
@@ -5497,7 +5564,7 @@
         <v>5</v>
       </c>
       <c r="AK28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL28" t="n">
         <v>26</v>
@@ -5509,16 +5576,16 @@
         <v>10</v>
       </c>
       <c r="AO28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AP28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ28" t="n">
         <v>10</v>
       </c>
       <c r="AR28" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AS28" t="n">
         <v>3</v>
@@ -5527,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="AU28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AV28" t="n">
         <v>30</v>
@@ -5536,22 +5603,22 @@
         <v>20</v>
       </c>
       <c r="AX28" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AY28" t="n">
         <v>20</v>
       </c>
       <c r="AZ28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BA28" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BB28" t="n">
         <v>14</v>
       </c>
       <c r="BC28" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BD28" t="n">
         <v>10</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E29" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F29" t="n">
         <v>15</v>
       </c>
       <c r="G29" t="n">
-        <v>0.531</v>
+        <v>0.516</v>
       </c>
       <c r="H29" t="n">
         <v>48.2</v>
@@ -5598,40 +5665,40 @@
         <v>37</v>
       </c>
       <c r="J29" t="n">
-        <v>82.90000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L29" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="M29" t="n">
-        <v>18</v>
+        <v>18.2</v>
       </c>
       <c r="N29" t="n">
-        <v>0.413</v>
+        <v>0.417</v>
       </c>
       <c r="O29" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="P29" t="n">
-        <v>19</v>
+        <v>18.9</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="R29" t="n">
-        <v>10.6</v>
+        <v>10.9</v>
       </c>
       <c r="S29" t="n">
         <v>30.9</v>
       </c>
       <c r="T29" t="n">
-        <v>41.6</v>
+        <v>41.8</v>
       </c>
       <c r="U29" t="n">
-        <v>22.3</v>
+        <v>22.2</v>
       </c>
       <c r="V29" t="n">
         <v>12.1</v>
@@ -5643,19 +5710,19 @@
         <v>4.3</v>
       </c>
       <c r="Y29" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="Z29" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AA29" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="AB29" t="n">
         <v>96.90000000000001</v>
       </c>
       <c r="AC29" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AD29" t="n">
         <v>3</v>
@@ -5667,10 +5734,10 @@
         <v>14</v>
       </c>
       <c r="AG29" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AH29" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI29" t="n">
         <v>11</v>
@@ -5679,7 +5746,7 @@
         <v>8</v>
       </c>
       <c r="AK29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5724,7 +5791,7 @@
         <v>17</v>
       </c>
       <c r="AZ29" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA29" t="n">
         <v>30</v>
@@ -5733,7 +5800,7 @@
         <v>16</v>
       </c>
       <c r="BC29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD29" t="n">
         <v>10</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -5762,82 +5829,82 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" t="n">
         <v>16</v>
       </c>
       <c r="G30" t="n">
-        <v>0.515</v>
+        <v>0.5</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>39.6</v>
+        <v>39.5</v>
       </c>
       <c r="J30" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K30" t="n">
-        <v>0.489</v>
+        <v>0.488</v>
       </c>
       <c r="L30" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M30" t="n">
         <v>10.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.347</v>
+        <v>0.346</v>
       </c>
       <c r="O30" t="n">
         <v>21.8</v>
       </c>
       <c r="P30" t="n">
-        <v>29.2</v>
+        <v>29.3</v>
       </c>
       <c r="Q30" t="n">
         <v>0.745</v>
       </c>
       <c r="R30" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="S30" t="n">
         <v>28.8</v>
       </c>
       <c r="T30" t="n">
-        <v>41.2</v>
+        <v>41.3</v>
       </c>
       <c r="U30" t="n">
         <v>25.5</v>
       </c>
       <c r="V30" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="W30" t="n">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="X30" t="n">
         <v>4.3</v>
       </c>
       <c r="Y30" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z30" t="n">
-        <v>24.9</v>
+        <v>24.8</v>
       </c>
       <c r="AA30" t="n">
-        <v>23.7</v>
+        <v>23.6</v>
       </c>
       <c r="AB30" t="n">
-        <v>104.8</v>
+        <v>104.6</v>
       </c>
       <c r="AC30" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -5846,7 +5913,7 @@
         <v>12</v>
       </c>
       <c r="AF30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
         <v>15</v>
@@ -5858,7 +5925,7 @@
         <v>3</v>
       </c>
       <c r="AJ30" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AK30" t="n">
         <v>2</v>
@@ -5870,10 +5937,10 @@
         <v>30</v>
       </c>
       <c r="AN30" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AO30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AP30" t="n">
         <v>4</v>
@@ -5882,10 +5949,10 @@
         <v>19</v>
       </c>
       <c r="AR30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AT30" t="n">
         <v>22</v>
@@ -5894,7 +5961,7 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>3</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>1.8</v>
       </c>
       <c r="AD31" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AE31" t="n">
         <v>14</v>
@@ -6031,19 +6098,19 @@
         <v>13</v>
       </c>
       <c r="AG31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AH31" t="n">
         <v>8</v>
       </c>
       <c r="AI31" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ31" t="n">
         <v>10</v>
       </c>
       <c r="AK31" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL31" t="n">
         <v>12</v>
@@ -6079,7 +6146,7 @@
         <v>8</v>
       </c>
       <c r="AW31" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX31" t="n">
         <v>13</v>
@@ -6088,7 +6155,7 @@
         <v>8</v>
       </c>
       <c r="AZ31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA31" t="n">
         <v>24</v>
@@ -6097,7 +6164,7 @@
         <v>11</v>
       </c>
       <c r="BC31" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>12-31-2007-08</t>
+          <t>2007-12-31</t>
         </is>
       </c>
     </row>
